--- a/Dictionary-mini.xlsx
+++ b/Dictionary-mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DFE3A-0A31-45A5-9EAD-D3E420E7C98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D3039-4977-40E9-AEE1-7074476FD1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="396" windowWidth="12924" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese_simple" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Cantonese" sheetId="3" r:id="rId3"/>
     <sheet name="Japanese" sheetId="4" r:id="rId4"/>
     <sheet name="Korean" sheetId="5" r:id="rId5"/>
+    <sheet name="Chao tone letters" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -113,9 +114,6 @@
   </si>
   <si>
     <t>shǎng</t>
-  </si>
-  <si>
-    <t>Syllable_vi</t>
   </si>
   <si>
     <t>transliteration_vi</t>
@@ -295,12 +293,183 @@
   <si>
     <t>vietnamese</t>
   </si>
+  <si>
+    <t>syllable_vi</t>
+  </si>
+  <si>
+    <t>Мова</t>
+  </si>
+  <si>
+    <t>Кількість тонів</t>
+  </si>
+  <si>
+    <t>Назва тону (локальна)</t>
+  </si>
+  <si>
+    <t>Схема висоти (Чао)</t>
+  </si>
+  <si>
+    <t>Приблизний опис</t>
+  </si>
+  <si>
+    <r>
+      <t>Путунхуа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (мандарин)</t>
+    </r>
+  </si>
+  <si>
+    <t>4 + нейтральний</t>
+  </si>
+  <si>
+    <t>1. 阴平 yīn píng</t>
+  </si>
+  <si>
+    <t>Високий рівний</t>
+  </si>
+  <si>
+    <t>2. 阳平 yáng píng</t>
+  </si>
+  <si>
+    <t>Середній → високий (підйом)</t>
+  </si>
+  <si>
+    <t>3. 上 shǎng</t>
+  </si>
+  <si>
+    <t>Низький → спад → підйом</t>
+  </si>
+  <si>
+    <t>4. 去 qù</t>
+  </si>
+  <si>
+    <t>Високий → різкий спад</t>
+  </si>
+  <si>
+    <t>нейтральний (轻声)</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Короткий, без чіткої мелодії</t>
+  </si>
+  <si>
+    <r>
+      <t>Кантонська</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (стандартна Гуанчжоу)</t>
+    </r>
+  </si>
+  <si>
+    <t>6–9*</t>
+  </si>
+  <si>
+    <t>1. 陰平</t>
+  </si>
+  <si>
+    <t>2. 陰上</t>
+  </si>
+  <si>
+    <t>3. 陰去</t>
+  </si>
+  <si>
+    <t>Середній рівний</t>
+  </si>
+  <si>
+    <t>4. 陽平</t>
+  </si>
+  <si>
+    <t>Низький спад</t>
+  </si>
+  <si>
+    <t>5. 陽上</t>
+  </si>
+  <si>
+    <t>Низький → середній (підйом)</t>
+  </si>
+  <si>
+    <t>6. 陽去</t>
+  </si>
+  <si>
+    <t>Низький рівний</t>
+  </si>
+  <si>
+    <t>(*7–9 — “вхідні” тони для складів, що закінчуються на -p, -t, -k: високий, середній, низький)</t>
+  </si>
+  <si>
+    <r>
+      <t>В’єтнамська</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (північна, Ханой)</t>
+    </r>
+  </si>
+  <si>
+    <t>ngang</t>
+  </si>
+  <si>
+    <t>Рівний середній</t>
+  </si>
+  <si>
+    <t>sắc</t>
+  </si>
+  <si>
+    <t>huyền</t>
+  </si>
+  <si>
+    <t>Середній → низький (спад)</t>
+  </si>
+  <si>
+    <t>hỏi</t>
+  </si>
+  <si>
+    <t>Спад → підйом (злам)</t>
+  </si>
+  <si>
+    <t>ngã</t>
+  </si>
+  <si>
+    <t>Підйом із гортанним зламом</t>
+  </si>
+  <si>
+    <t>nặng</t>
+  </si>
+  <si>
+    <t>21 (короткий, з гортанною зупинкою)</t>
+  </si>
+  <si>
+    <t>Низький короткий з "важким" відтінком</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +515,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,12 +552,54 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -410,23 +614,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -709,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,447 +959,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>55</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>55</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="10">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="8">
+        <v>1</v>
+      </c>
+      <c r="X2" s="8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="10">
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="11">
-        <v>1</v>
-      </c>
-      <c r="U2" s="11" t="s">
+      <c r="O3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="9">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>22</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>4</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="8">
+        <v>1</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>214</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>25</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="R5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>214</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>23</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>4</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>6</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>1</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="11">
-        <v>1</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="9">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>4</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="R6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10">
         <v>21</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="9">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>6</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>4</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="9">
-        <v>1</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W4" s="9">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
-        <v>2</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>2</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="11">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" s="9">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>5</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="T6" s="11">
-        <v>1</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="9">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -1197,107 +1424,33 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.3">
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="7:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="G20" s="3"/>
+    <row r="20" spans="9:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="I20" s="3"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="7:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:17" x14ac:dyDescent="0.3">
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1356,4 +1509,291 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1CF8F-C9EF-4965-AC4E-B2F5B1E34B2E}">
+  <dimension ref="B2:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="12">
+        <v>55</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="12">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="7">
+        <v>6</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="17">
+        <v>33</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="13">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="7">
+        <v>25</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="13">
+        <v>35</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="14">
+        <v>214</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="17">
+        <v>33</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="18">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="15">
+        <v>51</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="18">
+        <v>21</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="7">
+        <v>313</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="7">
+        <v>23</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O7" s="7">
+        <v>325</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="7">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dictionary-mini.xlsx
+++ b/Dictionary-mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D3039-4977-40E9-AEE1-7074476FD1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501548AF-5B84-4D74-A6BF-3EA9D9964168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="396" windowWidth="12924" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="276" windowWidth="12924" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese_simple" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>pinyin</t>
   </si>
   <si>
-    <t>trasliteration_zh</t>
-  </si>
-  <si>
     <t>syllable_zh</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>Низький короткий з "важким" відтінком</t>
+  </si>
+  <si>
+    <t>transliteration_zh</t>
   </si>
 </sst>
 </file>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,64 +969,64 @@
         <v>64</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>28</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X1" s="8" t="s">
         <v>62</v>
@@ -1523,267 +1523,267 @@
   <sheetData>
     <row r="2" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="L2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="E3" s="12">
         <v>55</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="J3" s="12">
         <v>55</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M3" s="7">
         <v>6</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O3" s="17">
         <v>33</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="13">
         <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J4" s="7">
         <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O4" s="13">
         <v>35</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="14">
         <v>214</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J5" s="17">
         <v>33</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O5" s="18">
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="15">
         <v>51</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="18">
         <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O6" s="7">
         <v>313</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="7">
         <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O7" s="7">
         <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" s="7">
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>

--- a/Dictionary-mini.xlsx
+++ b/Dictionary-mini.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501548AF-5B84-4D74-A6BF-3EA9D9964168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7E7D3-30C9-4BDF-B6BA-A7E700140A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="276" windowWidth="12924" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese_simple" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -463,6 +463,165 @@
   </si>
   <si>
     <t>transliteration_zh</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>xià</t>
+  </si>
+  <si>
+    <t>ㄒㄧㄚˋ</t>
+  </si>
+  <si>
+    <t>haa6</t>
+  </si>
+  <si>
+    <t>した</t>
+  </si>
+  <si>
+    <t>하</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>zhōng</t>
+  </si>
+  <si>
+    <t>ㄓㄨㄥ</t>
+  </si>
+  <si>
+    <t>zung1</t>
+  </si>
+  <si>
+    <t>ちゅう</t>
+  </si>
+  <si>
+    <t>중</t>
+  </si>
+  <si>
+    <t>trúng</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>shuǐ</t>
+  </si>
+  <si>
+    <t>ㄕㄨㄟˇ </t>
+  </si>
+  <si>
+    <t>seoi2</t>
+  </si>
+  <si>
+    <t>みず</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>thuỷ</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>huǒ</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄛˇ </t>
+  </si>
+  <si>
+    <t>fo2</t>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>hoả</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>huā</t>
+  </si>
+  <si>
+    <t>ㄏㄨㄚ</t>
+  </si>
+  <si>
+    <t>faa1</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t>xia</t>
+  </si>
+  <si>
+    <t>huo</t>
+  </si>
+  <si>
+    <t>hua</t>
+  </si>
+  <si>
+    <t>zhong</t>
+  </si>
+  <si>
+    <t>shui</t>
+  </si>
+  <si>
+    <t>haa</t>
+  </si>
+  <si>
+    <t>zung</t>
+  </si>
+  <si>
+    <t>seoi</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>faa</t>
+  </si>
+  <si>
+    <t>trung</t>
+  </si>
+  <si>
+    <t>thuy</t>
+  </si>
+  <si>
+    <t>mizu</t>
+  </si>
+  <si>
+    <t>hana</t>
+  </si>
+  <si>
+    <t>shita</t>
+  </si>
+  <si>
+    <t>chuu</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>hwa</t>
+  </si>
+  <si>
+    <t>jung</t>
+  </si>
+  <si>
+    <t>hạ</t>
   </si>
 </sst>
 </file>
@@ -492,13 +651,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="MS PGothic"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,13 +658,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -547,6 +692,20 @@
       <vertAlign val="superscript"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -614,23 +773,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -654,6 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -936,528 +1094,949 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="13" width="24.44140625" customWidth="1"/>
-    <col min="14" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="17" width="20.109375" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="20" max="20" width="20.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="1" max="3" width="10.88671875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="22.21875" style="6" customWidth="1"/>
+    <col min="7" max="10" width="10.88671875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17" style="6" customWidth="1"/>
+    <col min="12" max="13" width="24.44140625" style="6" customWidth="1"/>
+    <col min="14" max="15" width="10.88671875" style="6" customWidth="1"/>
+    <col min="16" max="17" width="20.109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="14" style="6" customWidth="1"/>
+    <col min="22" max="22" width="17.77734375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>55</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
         <v>55</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="N2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="7">
         <v>2</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="10">
-        <v>1</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="T2" s="8">
+        <v>1</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="8">
-        <v>1</v>
-      </c>
-      <c r="X2" s="8">
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="8">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>51</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>22</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>214</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>25</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="R5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>214</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="R6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>51</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="6">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>22</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
         <v>55</v>
       </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>51</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <v>55</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="R8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>214</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>25</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q9" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="R9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>214</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>25</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>55</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>55</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="6">
         <v>2</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>1</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="10">
-        <v>1</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="8">
-        <v>1</v>
-      </c>
-      <c r="X3" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>51</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
-        <v>22</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>4</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="8">
-        <v>1</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="8">
-        <v>1</v>
-      </c>
-      <c r="X4" s="8">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>214</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="R11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
         <v>33</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>25</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="10">
-        <v>1</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1</v>
-      </c>
-      <c r="X5" s="8">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>214</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>23</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>2</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="10">
-        <v>1</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="8">
-        <v>1</v>
-      </c>
-      <c r="X6" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="9:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="I20" s="3"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.3">
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="T14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="I20" s="8"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="9:17" x14ac:dyDescent="0.35">
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="35" spans="1:24" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+    </row>
+    <row r="50" spans="1:24" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1522,273 +2101,273 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>55</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="10">
         <v>55</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>6</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="15">
         <v>33</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>25</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <v>35</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>214</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>33</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="16">
         <v>21</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>51</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="16">
         <v>21</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <v>313</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>23</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>325</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>22</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>

--- a/Dictionary-mini.xlsx
+++ b/Dictionary-mini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Asia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A7E7D3-30C9-4BDF-B6BA-A7E700140A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1A85C-0955-466C-98E4-286107DE6125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="238">
   <si>
     <t>ID</t>
   </si>
@@ -623,12 +623,183 @@
   <si>
     <t>hạ</t>
   </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>nǚ</t>
+  </si>
+  <si>
+    <t>ㄋㄩˇ </t>
+  </si>
+  <si>
+    <t>neoi5</t>
+  </si>
+  <si>
+    <t>おんな</t>
+  </si>
+  <si>
+    <t>여</t>
+  </si>
+  <si>
+    <t>nữ</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>nán</t>
+  </si>
+  <si>
+    <t>ㄋㄢˊ</t>
+  </si>
+  <si>
+    <t>naam4</t>
+  </si>
+  <si>
+    <t>おとこ</t>
+  </si>
+  <si>
+    <t>남</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>lì</t>
+  </si>
+  <si>
+    <t>ㄌㄧˋ</t>
+  </si>
+  <si>
+    <t>lik6</t>
+  </si>
+  <si>
+    <t>ちから</t>
+  </si>
+  <si>
+    <t>lực</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>tián</t>
+  </si>
+  <si>
+    <t>ㄊㄧㄢˊ</t>
+  </si>
+  <si>
+    <t>tin4</t>
+  </si>
+  <si>
+    <t>た</t>
+  </si>
+  <si>
+    <t>điền</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>jīn</t>
+  </si>
+  <si>
+    <t>ㄐㄧㄣ</t>
+  </si>
+  <si>
+    <t>gam1</t>
+  </si>
+  <si>
+    <t>きん</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>tian</t>
+  </si>
+  <si>
+    <t>jin</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>neoi</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>lik</t>
+  </si>
+  <si>
+    <t>tin</t>
+  </si>
+  <si>
+    <t>gam</t>
+  </si>
+  <si>
+    <t>onna</t>
+  </si>
+  <si>
+    <t>otoko</t>
+  </si>
+  <si>
+    <t>chikara</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>력</t>
+  </si>
+  <si>
+    <t>ryeog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전 </t>
+  </si>
+  <si>
+    <t>jeon</t>
+  </si>
+  <si>
+    <t>geum</t>
+  </si>
+  <si>
+    <t>yeo</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>luc</t>
+  </si>
+  <si>
+    <t>dien</t>
+  </si>
+  <si>
+    <t>nü</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,6 +881,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -773,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -812,6 +990,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1094,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1932,40 +2111,374 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>214</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>23</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>3</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1</v>
+      </c>
+      <c r="X12" s="6">
+        <v>214</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="S13" s="8"/>
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>21</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="T14" s="8"/>
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>51</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>22</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="T14" s="8">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1</v>
+      </c>
+      <c r="X14" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>21</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>55</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>2</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1</v>
+      </c>
+      <c r="X16" s="6">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.35">
       <c r="O19" s="7"/>
